--- a/2021FSAdates.xlsx
+++ b/2021FSAdates.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99709A7A-BA32-4311-AB21-A566BE565A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680E8AAE-6AA8-44F1-8C10-8F479CF7B1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="720" windowWidth="14370" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -297,12 +295,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I108" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I108">
-    <sortCondition ref="A2:A108"/>
-    <sortCondition ref="F2:F108"/>
-    <sortCondition ref="B2:B108"/>
-    <sortCondition ref="C2:C108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I109" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I109">
+    <sortCondition ref="A2:A109"/>
+    <sortCondition ref="F2:F109"/>
+    <sortCondition ref="B2:B109"/>
+    <sortCondition ref="C2:C109"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -634,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,7 +2729,7 @@
         <v>12</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2748,11 +2746,11 @@
       <c r="I60" s="1"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BE</v>
+        <v>N/A</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GE</v>
+        <v/>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2766,7 +2764,7 @@
         <v>11</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2783,11 +2781,11 @@
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15MF</v>
+        <v>N/A</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WF</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2801,7 +2799,7 @@
         <v>11</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2818,11 +2816,11 @@
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BF</v>
+        <v>N/A</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GF</v>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2836,7 +2834,7 @@
         <v>12</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2853,11 +2851,11 @@
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U11BE</v>
+        <v>N/A</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U11GE</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2871,7 +2869,7 @@
         <v>11</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2888,11 +2886,11 @@
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U13BF</v>
+        <v>N/A</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U13GF</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2906,7 +2904,7 @@
         <v>12</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2923,11 +2921,11 @@
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210801U15ME</v>
+        <v>N/A</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210801U15WE</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2944,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>26</v>
@@ -2958,11 +2956,11 @@
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OME</v>
+        <v>20210815OE</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2976,7 +2974,7 @@
         <v>13</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2993,11 +2991,11 @@
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMS</v>
+        <v>N/A</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWS</v>
+        <v/>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3011,7 +3009,7 @@
         <v>11</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3028,11 +3026,11 @@
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMF</v>
+        <v>N/A</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWF</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3116,7 +3114,7 @@
         <v>13</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3133,11 +3131,11 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VMS</v>
+        <v>N/A</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWS</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3177,7 +3175,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20210905</v>
+        <v>20210912</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>25</v>
@@ -3203,16 +3201,16 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MF</v>
+        <v>20210912U1720MF</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WF</v>
+        <v>20210912U1720WF</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>20210905</v>
+        <v>20210912</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
@@ -3238,16 +3236,16 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBME</v>
+        <v>20210912OBME</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWE</v>
+        <v>20210912OBWE</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>20210905</v>
+        <v>20210912</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>25</v>
@@ -3256,7 +3254,7 @@
         <v>13</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3273,16 +3271,16 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720MS</v>
+        <v>N/A</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WS</v>
+        <v/>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>20210905</v>
+        <v>20210912</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>7</v>
@@ -3308,16 +3306,16 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMF</v>
+        <v>20210912OBMF</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWF</v>
+        <v>20210912OBWF</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>20210905</v>
+        <v>20210912</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>25</v>
@@ -3329,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>29</v>
@@ -3343,16 +3341,16 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905U1720ME</v>
+        <v>20210912U1720E</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905U1720WE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>20210905</v>
+        <v>20210912</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>7</v>
@@ -3364,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>30</v>
@@ -3378,11 +3376,11 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210905OBMS</v>
+        <v>20210912OBS</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210905OBWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3469,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>31</v>
@@ -3483,11 +3481,11 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMS</v>
+        <v>20211017OS</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3501,7 +3499,7 @@
         <v>11</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3518,11 +3516,11 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMF</v>
+        <v>N/A</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWF</v>
+        <v/>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3606,7 +3604,7 @@
         <v>13</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3623,11 +3621,11 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VMS</v>
+        <v>N/A</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWS</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3711,7 +3709,7 @@
         <v>13</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3728,11 +3726,11 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MS</v>
+        <v>N/A</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WS</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3784,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>29</v>
@@ -3798,11 +3796,11 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720ME</v>
+        <v>20211024U1720E</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3816,7 +3814,7 @@
         <v>13</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3833,11 +3831,11 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMS</v>
+        <v>N/A</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWS</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -3950,10 +3948,10 @@
         <v>20211107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3962,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>24</v>
@@ -3973,11 +3971,11 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U15MS</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
+        <v>20211107U15WS</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -3985,10 +3983,10 @@
         <v>20211107</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4008,11 +4006,11 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U11BE</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
+        <v>20211107U11GE</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4020,10 +4018,10 @@
         <v>20211107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4032,10 +4030,10 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>24</v>
@@ -4043,19 +4041,19 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
+        <v>20211107U13GF</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
@@ -4067,22 +4065,22 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U15ME</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
+        <v>20211107U15WE</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4093,7 +4091,7 @@
         <v>18</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4102,10 +4100,10 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>19</v>
@@ -4113,11 +4111,11 @@
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211121OME</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
+        <v>20211121OWE</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4125,10 +4123,10 @@
         <v>20211121</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4148,11 +4146,11 @@
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
+        <v>20211121OWS</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4160,7 +4158,7 @@
         <v>20211121</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>11</v>
@@ -4172,10 +4170,10 @@
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>19</v>
@@ -4183,11 +4181,11 @@
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
+        <v>20211121VWF</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4195,10 +4193,10 @@
         <v>20211121</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4218,11 +4216,11 @@
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
+        <v>20211121OWF</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4233,7 +4231,7 @@
         <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4253,34 +4251,34 @@
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121VME</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
+        <v>20211121VWE</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
@@ -4288,11 +4286,11 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWS</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4303,7 +4301,7 @@
         <v>41</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -4323,7 +4321,7 @@
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4335,10 +4333,10 @@
         <v>20211128</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -4347,10 +4345,10 @@
         <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>19</v>
@@ -4358,7 +4356,7 @@
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211128U13TF</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4373,7 +4371,7 @@
         <v>40</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4393,7 +4391,7 @@
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211128U17TE</v>
       </c>
       <c r="L107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4405,9 +4403,11 @@
         <v>20211128</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C108" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D108">
         <v>0</v>
       </c>
@@ -4415,10 +4415,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>19</v>
@@ -4426,9 +4426,42 @@
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L108" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>20211128</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="K109" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L108" t="str">
+      <c r="L109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>

--- a/2021FSAdates.xlsx
+++ b/2021FSAdates.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680E8AAE-6AA8-44F1-8C10-8F479CF7B1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B5722E-B53F-4938-A947-ECF0CDC13C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="720" windowWidth="14370" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -189,10 +190,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -295,12 +302,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I109" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I109">
-    <sortCondition ref="A2:A109"/>
-    <sortCondition ref="F2:F109"/>
-    <sortCondition ref="B2:B109"/>
-    <sortCondition ref="C2:C109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I112" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I112">
+    <sortCondition ref="A2:A112"/>
+    <sortCondition ref="F2:F112"/>
+    <sortCondition ref="B2:B112"/>
+    <sortCondition ref="C2:C112"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -631,11 +638,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71EF254-2994-45F9-B8D3-D6D116EEE8F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>26</v>
@@ -3656,11 +3675,7 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
-      </c>
-      <c r="L86" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
+        <v>20211024U1720F</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3668,10 +3683,10 @@
         <v>20211024</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3680,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
@@ -3691,11 +3706,11 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20211024U1720MF</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
+        <v>20211024U1720WF</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3703,22 +3718,22 @@
         <v>20211024</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
@@ -3726,11 +3741,11 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20211024OBME</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20211024OBWE</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3738,22 +3753,22 @@
         <v>20211024</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
@@ -3761,11 +3776,11 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>N/A</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3773,16 +3788,16 @@
         <v>20211024</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>29</v>
@@ -3796,11 +3811,11 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720E</v>
+        <v>20211024OBMF</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211024OBWF</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3808,19 +3823,19 @@
         <v>20211024</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>36</v>
@@ -3831,46 +3846,46 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20211024U1720E</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>N/A</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20211107</v>
+        <v>20211024</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>N/A</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -3878,10 +3893,10 @@
         <v>20211107</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3901,11 +3916,11 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20211107U13BE</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
+        <v>20211107U13GE</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -3913,7 +3928,7 @@
         <v>20211107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
@@ -3925,10 +3940,10 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>24</v>
@@ -3936,11 +3951,11 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20211107U15MF</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
+        <v>20211107U15WF</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -3948,22 +3963,22 @@
         <v>20211107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>24</v>
@@ -3971,11 +3986,11 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MS</v>
+        <v>20211107U11F</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -3986,7 +4001,7 @@
         <v>20</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3995,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>24</v>
@@ -4006,11 +4021,11 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BE</v>
+        <v>20211107U11BF</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GE</v>
+        <v>20211107U11GF</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4018,22 +4033,22 @@
         <v>20211107</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>24</v>
@@ -4041,11 +4056,11 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v>20211107U15S</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4056,7 +4071,7 @@
         <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4065,10 +4080,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>24</v>
@@ -4076,19 +4091,19 @@
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15ME</v>
+        <v>20211107U15MS</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WE</v>
+        <v>20211107U15WS</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>12</v>
@@ -4097,36 +4112,36 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v>20211107U11E</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4135,57 +4150,57 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>20211107U13BF</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
+        <v>20211107U13GF</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>20211121</v>
+        <v>20211107</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>20211107U15E</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4196,7 +4211,7 @@
         <v>18</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4205,10 +4220,10 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>19</v>
@@ -4216,11 +4231,11 @@
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>20211121OME</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
+        <v>20211121OWE</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4228,10 +4243,10 @@
         <v>20211121</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4240,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>19</v>
@@ -4251,11 +4266,11 @@
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v>20211121OMS</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
+        <v>20211121OWS</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4266,7 +4281,7 @@
         <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4275,10 +4290,10 @@
         <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
@@ -4286,34 +4301,34 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>20211121VMF</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
+        <v>20211121VWF</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>19</v>
@@ -4321,34 +4336,34 @@
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>20211121OMF</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121OWF</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>19</v>
@@ -4356,34 +4371,34 @@
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v>20211121VME</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWE</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>20211128</v>
+        <v>20211121</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>19</v>
@@ -4391,11 +4406,11 @@
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>20211121VMS</v>
       </c>
       <c r="L107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20211121VWS</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4403,10 +4418,10 @@
         <v>20211128</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -4415,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>19</v>
@@ -4426,7 +4441,7 @@
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v>20211128U13TE</v>
       </c>
       <c r="L108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
@@ -4438,9 +4453,11 @@
         <v>20211128</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C109" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D109">
         <v>0</v>
       </c>
@@ -4448,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>19</v>
@@ -4459,14 +4476,118 @@
       <c r="I109" s="1"/>
       <c r="K109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U13TF</v>
+      </c>
+      <c r="L109" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>20211128</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="K110" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TE</v>
+      </c>
+      <c r="L110" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>20211128</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="K111" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128U17TF</v>
+      </c>
+      <c r="L111" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>20211128</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="K112" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
         <v>20211128OT</v>
       </c>
-      <c r="L109" t="str">
+      <c r="L112" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/2021FSAdates.xlsx
+++ b/2021FSAdates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B5722E-B53F-4938-A947-ECF0CDC13C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5081A8BA-7516-41EA-83BB-FE89A80F9793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>26</v>
@@ -3916,11 +3916,11 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BE</v>
+        <v>20211107U13E</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4249,7 +4249,7 @@
         <v>13</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -4266,11 +4266,11 @@
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMS</v>
+        <v>N/A</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWS</v>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4284,7 +4284,7 @@
         <v>11</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -4301,11 +4301,11 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMF</v>
+        <v>N/A</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWF</v>
+        <v/>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>11</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -4336,11 +4336,11 @@
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OMF</v>
+        <v>N/A</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWF</v>
+        <v/>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4389,7 +4389,7 @@
         <v>13</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -4406,11 +4406,11 @@
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VMS</v>
+        <v>N/A</v>
       </c>
       <c r="L107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWS</v>
+        <v/>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">

--- a/2021FSAdates.xlsx
+++ b/2021FSAdates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5081A8BA-7516-41EA-83BB-FE89A80F9793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C51438-B085-4CC5-A7EA-FB7D72434ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14430" yWindow="1140" windowWidth="14100" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I112" tableType="xml" totalsRowShown="0" connectionId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I113" tableType="xml" totalsRowShown="0" connectionId="2">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I112">
     <sortCondition ref="A2:A112"/>
     <sortCondition ref="F2:F112"/>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4424,7 +4424,7 @@
         <v>12</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4441,11 +4441,11 @@
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TE</v>
+        <v>N/A</v>
       </c>
       <c r="L108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v/>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4494,7 +4494,7 @@
         <v>12</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4511,11 +4511,11 @@
       <c r="I110" s="1"/>
       <c r="K110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TE</v>
+        <v>N/A</v>
       </c>
       <c r="L110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v/>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4560,7 +4560,9 @@
       <c r="B112" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D112">
         <v>0</v>
       </c>
@@ -4579,9 +4581,44 @@
       <c r="I112" s="1"/>
       <c r="K112" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128OT</v>
+        <v>20211128OTE</v>
       </c>
       <c r="L112" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>20211128</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="K113" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20211128OTF</v>
+      </c>
+      <c r="L113" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
